--- a/02 - Simulation/Test_Workbench_Results.xlsx
+++ b/02 - Simulation/Test_Workbench_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d04f23f7faf3ef/Bureau/PROFESSIONAL/CANADA/5_Cours/H25_MEC8211/0_Devoir 1/MEC8211_projet/0_Simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2d04f23f7faf3ef/Bureau/PROFESSIONAL/CANADA/5_Cours/H25_MEC8211/0_Devoir 1/MEC8211_projet/02 - Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{EFE4C6DA-085D-4142-BD95-2D8F231A4C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C4D3253-0EA9-4777-B2BB-F3AD82318897}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{EFE4C6DA-085D-4142-BD95-2D8F231A4C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBA90C7-73BC-4868-9395-F2ACB3E9160A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9E38127D-35E8-4C07-91DD-A2F0D3C657E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>SRQ</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>r_23</t>
+  </si>
+  <si>
+    <t>d(SRQ)</t>
   </si>
 </sst>
 </file>
@@ -956,16 +959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>376254</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23167</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>184359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>447710</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>301172</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>175566</xdr:rowOff>
+      <xdr:rowOff>151143</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC5F041-2929-46F8-A584-D6EA47CC7E41}">
-  <dimension ref="C2:G9"/>
+  <dimension ref="C2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,7 +1328,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -1338,8 +1341,11 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -1357,13 +1363,17 @@
         <f>0.0000054769</f>
         <v>5.4769E-6</v>
       </c>
+      <c r="H3">
+        <f>G4-G3</f>
+        <v>2.1000000000003695E-9</v>
+      </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D5" si="0">E5/E4</f>
+        <f t="shared" ref="D4" si="0">E5/E4</f>
         <v>1.6025415013956221</v>
       </c>
       <c r="E4">
@@ -1376,8 +1386,12 @@
         <f>0.000005479</f>
         <v>5.4790000000000004E-6</v>
       </c>
+      <c r="H4">
+        <f>G5-G4</f>
+        <v>8.7999999999998141E-9</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E5">
         <v>65451</v>
       </c>
@@ -1389,12 +1403,12 @@
         <v>5.4878000000000002E-6</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
